--- a/data/9997.xlsx
+++ b/data/9997.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1207"/>
+  <dimension ref="A1:I1208"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43107,6 +43107,43 @@
         <v>27900</v>
       </c>
     </row>
+    <row r="1208">
+      <c r="A1208" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1208" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1208" t="inlineStr">
+        <is>
+          <t>9997</t>
+        </is>
+      </c>
+      <c r="D1208" t="inlineStr">
+        <is>
+          <t>PENSONI</t>
+        </is>
+      </c>
+      <c r="E1208" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="F1208" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="G1208" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="H1208" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="I1208" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9997.xlsx
+++ b/data/9997.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1208"/>
+  <dimension ref="A1:I1209"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43144,6 +43144,41 @@
         </is>
       </c>
     </row>
+    <row r="1209">
+      <c r="A1209" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1209" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1209" t="inlineStr">
+        <is>
+          <t>9997</t>
+        </is>
+      </c>
+      <c r="D1209" t="inlineStr">
+        <is>
+          <t>PENSONI</t>
+        </is>
+      </c>
+      <c r="E1209" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="F1209" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="G1209" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="H1209" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="I1209" t="n">
+        <v>54400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9997.xlsx
+++ b/data/9997.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1209"/>
+  <dimension ref="A1:I1210"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43179,6 +43179,43 @@
         <v>54400</v>
       </c>
     </row>
+    <row r="1210">
+      <c r="A1210" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1210" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1210" t="inlineStr">
+        <is>
+          <t>9997</t>
+        </is>
+      </c>
+      <c r="D1210" t="inlineStr">
+        <is>
+          <t>PENSONI</t>
+        </is>
+      </c>
+      <c r="E1210" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="F1210" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="G1210" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="H1210" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="I1210" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9997.xlsx
+++ b/data/9997.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1210"/>
+  <dimension ref="A1:I1211"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43216,6 +43216,43 @@
         </is>
       </c>
     </row>
+    <row r="1211">
+      <c r="A1211" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1211" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1211" t="inlineStr">
+        <is>
+          <t>9997</t>
+        </is>
+      </c>
+      <c r="D1211" t="inlineStr">
+        <is>
+          <t>PENSONI</t>
+        </is>
+      </c>
+      <c r="E1211" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="F1211" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="G1211" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="H1211" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="I1211" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9997.xlsx
+++ b/data/9997.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1211"/>
+  <dimension ref="A1:I1212"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43253,6 +43253,43 @@
         </is>
       </c>
     </row>
+    <row r="1212">
+      <c r="A1212" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1212" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1212" t="inlineStr">
+        <is>
+          <t>9997</t>
+        </is>
+      </c>
+      <c r="D1212" t="inlineStr">
+        <is>
+          <t>PENSONI</t>
+        </is>
+      </c>
+      <c r="E1212" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="F1212" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="G1212" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="H1212" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="I1212" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9997.xlsx
+++ b/data/9997.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1212"/>
+  <dimension ref="A1:I1213"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43290,6 +43290,41 @@
         </is>
       </c>
     </row>
+    <row r="1213">
+      <c r="A1213" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1213" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1213" t="inlineStr">
+        <is>
+          <t>9997</t>
+        </is>
+      </c>
+      <c r="D1213" t="inlineStr">
+        <is>
+          <t>PENSONI</t>
+        </is>
+      </c>
+      <c r="E1213" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="F1213" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="G1213" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="H1213" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="I1213" t="n">
+        <v>43400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9997.xlsx
+++ b/data/9997.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1213"/>
+  <dimension ref="A1:I1214"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43325,6 +43325,43 @@
         <v>43400</v>
       </c>
     </row>
+    <row r="1214">
+      <c r="A1214" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1214" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1214" t="inlineStr">
+        <is>
+          <t>9997</t>
+        </is>
+      </c>
+      <c r="D1214" t="inlineStr">
+        <is>
+          <t>PENSONI</t>
+        </is>
+      </c>
+      <c r="E1214" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="F1214" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="G1214" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="H1214" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="I1214" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9997.xlsx
+++ b/data/9997.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1214"/>
+  <dimension ref="A1:I1215"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43362,6 +43362,43 @@
         </is>
       </c>
     </row>
+    <row r="1215">
+      <c r="A1215" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1215" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1215" t="inlineStr">
+        <is>
+          <t>9997</t>
+        </is>
+      </c>
+      <c r="D1215" t="inlineStr">
+        <is>
+          <t>PENSONI</t>
+        </is>
+      </c>
+      <c r="E1215" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="F1215" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="G1215" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="H1215" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="I1215" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9997.xlsx
+++ b/data/9997.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1215"/>
+  <dimension ref="A1:I1216"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43399,6 +43399,41 @@
         </is>
       </c>
     </row>
+    <row r="1216">
+      <c r="A1216" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1216" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1216" t="inlineStr">
+        <is>
+          <t>9997</t>
+        </is>
+      </c>
+      <c r="D1216" t="inlineStr">
+        <is>
+          <t>PENSONI</t>
+        </is>
+      </c>
+      <c r="E1216" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="F1216" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="G1216" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="H1216" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="I1216" t="n">
+        <v>93000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9997.xlsx
+++ b/data/9997.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1216"/>
+  <dimension ref="A1:I1217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43434,6 +43434,43 @@
         <v>93000</v>
       </c>
     </row>
+    <row r="1217">
+      <c r="A1217" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1217" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1217" t="inlineStr">
+        <is>
+          <t>9997</t>
+        </is>
+      </c>
+      <c r="D1217" t="inlineStr">
+        <is>
+          <t>PENSONI</t>
+        </is>
+      </c>
+      <c r="E1217" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="F1217" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="G1217" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="H1217" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="I1217" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9997.xlsx
+++ b/data/9997.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43471,6 +43471,43 @@
         </is>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>9997</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>PENSONI</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="I1218" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9997.xlsx
+++ b/data/9997.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43508,6 +43508,41 @@
         </is>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>9997</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>PENSONI</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>45000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9997.xlsx
+++ b/data/9997.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43543,6 +43543,76 @@
         <v>45000</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>9997</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>PENSONI</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>9997</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>PENSONI</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>23400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9997.xlsx
+++ b/data/9997.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43613,6 +43613,78 @@
         <v>23400</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>9997</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>PENSONI</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>9997</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>PENSONI</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="I1223" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9997.xlsx
+++ b/data/9997.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43685,6 +43685,43 @@
         </is>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>9997</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>PENSONI</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="I1224" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9997.xlsx
+++ b/data/9997.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43722,6 +43722,41 @@
         </is>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>9997</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>PENSONI</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>130000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9997.xlsx
+++ b/data/9997.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43757,6 +43757,41 @@
         <v>130000</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>9997</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>PENSONI</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>10000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9997.xlsx
+++ b/data/9997.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43792,6 +43792,41 @@
         <v>10000</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>9997</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>PENSONI</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>50000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9997.xlsx
+++ b/data/9997.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43827,6 +43827,78 @@
         <v>50000</v>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>9997</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>PENSONI</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I1228" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>9997</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>PENSONI</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>162000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9997.xlsx
+++ b/data/9997.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1230"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43899,6 +43899,41 @@
         <v>162000</v>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>9997</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>PENSONI</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>70000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9997.xlsx
+++ b/data/9997.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1230"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43934,6 +43934,41 @@
         <v>70000</v>
       </c>
     </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>9997</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>PENSONI</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>120000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9997.xlsx
+++ b/data/9997.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2367"/>
+  <dimension ref="A1:I2368"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83729,6 +83729,41 @@
         <v>120000</v>
       </c>
     </row>
+    <row r="2368">
+      <c r="A2368" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B2368" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C2368" t="inlineStr">
+        <is>
+          <t>9997</t>
+        </is>
+      </c>
+      <c r="D2368" t="inlineStr">
+        <is>
+          <t>PENSONI</t>
+        </is>
+      </c>
+      <c r="E2368" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="F2368" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="G2368" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="H2368" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="I2368" t="n">
+        <v>153800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9997.xlsx
+++ b/data/9997.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2368"/>
+  <dimension ref="A1:I2369"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83764,6 +83764,41 @@
         <v>153800</v>
       </c>
     </row>
+    <row r="2369">
+      <c r="A2369" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B2369" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C2369" t="inlineStr">
+        <is>
+          <t>9997</t>
+        </is>
+      </c>
+      <c r="D2369" t="inlineStr">
+        <is>
+          <t>PENSONI</t>
+        </is>
+      </c>
+      <c r="E2369" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F2369" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="G2369" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H2369" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="I2369" t="n">
+        <v>41800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9997.xlsx
+++ b/data/9997.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2369"/>
+  <dimension ref="A1:I2370"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83799,6 +83799,41 @@
         <v>41800</v>
       </c>
     </row>
+    <row r="2370">
+      <c r="A2370" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B2370" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C2370" t="inlineStr">
+        <is>
+          <t>9997</t>
+        </is>
+      </c>
+      <c r="D2370" t="inlineStr">
+        <is>
+          <t>PENSONI</t>
+        </is>
+      </c>
+      <c r="E2370" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F2370" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G2370" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="H2370" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I2370" t="n">
+        <v>84000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9997.xlsx
+++ b/data/9997.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2370"/>
+  <dimension ref="A1:I2371"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83834,6 +83834,41 @@
         <v>84000</v>
       </c>
     </row>
+    <row r="2371">
+      <c r="A2371" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B2371" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C2371" t="inlineStr">
+        <is>
+          <t>9997</t>
+        </is>
+      </c>
+      <c r="D2371" t="inlineStr">
+        <is>
+          <t>PENSONI</t>
+        </is>
+      </c>
+      <c r="E2371" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="F2371" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="G2371" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="H2371" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="I2371" t="n">
+        <v>19000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9997.xlsx
+++ b/data/9997.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2371"/>
+  <dimension ref="A1:I2372"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83869,6 +83869,41 @@
         <v>19000</v>
       </c>
     </row>
+    <row r="2372">
+      <c r="A2372" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B2372" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C2372" t="inlineStr">
+        <is>
+          <t>9997</t>
+        </is>
+      </c>
+      <c r="D2372" t="inlineStr">
+        <is>
+          <t>PENSONI</t>
+        </is>
+      </c>
+      <c r="E2372" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="F2372" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="G2372" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H2372" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="I2372" t="n">
+        <v>140000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9997.xlsx
+++ b/data/9997.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2372"/>
+  <dimension ref="A1:I2373"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83904,6 +83904,41 @@
         <v>140000</v>
       </c>
     </row>
+    <row r="2373">
+      <c r="A2373" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B2373" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C2373" t="inlineStr">
+        <is>
+          <t>9997</t>
+        </is>
+      </c>
+      <c r="D2373" t="inlineStr">
+        <is>
+          <t>PENSONI</t>
+        </is>
+      </c>
+      <c r="E2373" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="F2373" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G2373" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="H2373" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I2373" t="n">
+        <v>10000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9997.xlsx
+++ b/data/9997.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2373"/>
+  <dimension ref="A1:I2374"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83939,6 +83939,41 @@
         <v>10000</v>
       </c>
     </row>
+    <row r="2374">
+      <c r="A2374" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2374" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2374" t="inlineStr">
+        <is>
+          <t>9997</t>
+        </is>
+      </c>
+      <c r="D2374" t="inlineStr">
+        <is>
+          <t>PENSONI</t>
+        </is>
+      </c>
+      <c r="E2374" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F2374" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G2374" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H2374" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I2374" t="n">
+        <v>65500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9997.xlsx
+++ b/data/9997.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2374"/>
+  <dimension ref="A1:I2375"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83974,6 +83974,43 @@
         <v>65500</v>
       </c>
     </row>
+    <row r="2375">
+      <c r="A2375" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B2375" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C2375" t="inlineStr">
+        <is>
+          <t>9997</t>
+        </is>
+      </c>
+      <c r="D2375" t="inlineStr">
+        <is>
+          <t>PENSONI</t>
+        </is>
+      </c>
+      <c r="E2375" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F2375" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G2375" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H2375" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I2375" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9997.xlsx
+++ b/data/9997.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2375"/>
+  <dimension ref="A1:I2376"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84011,6 +84011,41 @@
         </is>
       </c>
     </row>
+    <row r="2376">
+      <c r="A2376" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B2376" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C2376" t="inlineStr">
+        <is>
+          <t>9997</t>
+        </is>
+      </c>
+      <c r="D2376" t="inlineStr">
+        <is>
+          <t>PENSONI</t>
+        </is>
+      </c>
+      <c r="E2376" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F2376" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G2376" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H2376" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I2376" t="n">
+        <v>5000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9997.xlsx
+++ b/data/9997.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2376"/>
+  <dimension ref="A1:I2377"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84046,6 +84046,41 @@
         <v>5000</v>
       </c>
     </row>
+    <row r="2377">
+      <c r="A2377" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B2377" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C2377" t="inlineStr">
+        <is>
+          <t>9997</t>
+        </is>
+      </c>
+      <c r="D2377" t="inlineStr">
+        <is>
+          <t>PENSONI</t>
+        </is>
+      </c>
+      <c r="E2377" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="F2377" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="G2377" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H2377" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="I2377" t="n">
+        <v>62000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9997.xlsx
+++ b/data/9997.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2377"/>
+  <dimension ref="A1:I2378"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84081,6 +84081,41 @@
         <v>62000</v>
       </c>
     </row>
+    <row r="2378">
+      <c r="A2378" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B2378" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C2378" t="inlineStr">
+        <is>
+          <t>9997</t>
+        </is>
+      </c>
+      <c r="D2378" t="inlineStr">
+        <is>
+          <t>PENSONI</t>
+        </is>
+      </c>
+      <c r="E2378" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="F2378" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="G2378" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="H2378" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="I2378" t="n">
+        <v>112000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9997.xlsx
+++ b/data/9997.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2378"/>
+  <dimension ref="A1:I2379"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84116,6 +84116,41 @@
         <v>112000</v>
       </c>
     </row>
+    <row r="2379">
+      <c r="A2379" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B2379" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C2379" t="inlineStr">
+        <is>
+          <t>9997</t>
+        </is>
+      </c>
+      <c r="D2379" t="inlineStr">
+        <is>
+          <t>PENSONI</t>
+        </is>
+      </c>
+      <c r="E2379" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="F2379" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="G2379" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="H2379" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="I2379" t="n">
+        <v>20000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9997.xlsx
+++ b/data/9997.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2379"/>
+  <dimension ref="A1:I2380"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84151,6 +84151,41 @@
         <v>20000</v>
       </c>
     </row>
+    <row r="2380">
+      <c r="A2380" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B2380" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C2380" t="inlineStr">
+        <is>
+          <t>9997</t>
+        </is>
+      </c>
+      <c r="D2380" t="inlineStr">
+        <is>
+          <t>PENSONI</t>
+        </is>
+      </c>
+      <c r="E2380" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="F2380" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="G2380" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="H2380" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I2380" t="n">
+        <v>85000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9997.xlsx
+++ b/data/9997.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2380"/>
+  <dimension ref="A1:I2381"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84186,6 +84186,41 @@
         <v>85000</v>
       </c>
     </row>
+    <row r="2381">
+      <c r="A2381" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2381" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2381" t="inlineStr">
+        <is>
+          <t>9997</t>
+        </is>
+      </c>
+      <c r="D2381" t="inlineStr">
+        <is>
+          <t>PENSONI</t>
+        </is>
+      </c>
+      <c r="E2381" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F2381" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="G2381" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H2381" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="I2381" t="n">
+        <v>471500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9997.xlsx
+++ b/data/9997.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2381"/>
+  <dimension ref="A1:I2382"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84221,6 +84221,43 @@
         <v>471500</v>
       </c>
     </row>
+    <row r="2382">
+      <c r="A2382" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B2382" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C2382" t="inlineStr">
+        <is>
+          <t>9997</t>
+        </is>
+      </c>
+      <c r="D2382" t="inlineStr">
+        <is>
+          <t>PENSONI</t>
+        </is>
+      </c>
+      <c r="E2382" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="F2382" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="G2382" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="H2382" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="I2382" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
